--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Arf1-Pld2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Arf1-Pld2.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H2">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I2">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J2">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>7.017424666666666</v>
+        <v>9.020393666666665</v>
       </c>
       <c r="N2">
-        <v>21.052274</v>
+        <v>27.061181</v>
       </c>
       <c r="O2">
-        <v>0.1914754252830586</v>
+        <v>0.2369163967891402</v>
       </c>
       <c r="P2">
-        <v>0.1914754252830585</v>
+        <v>0.2369163967891402</v>
       </c>
       <c r="Q2">
-        <v>406.8872245756202</v>
+        <v>462.0892879380228</v>
       </c>
       <c r="R2">
-        <v>3661.985021180582</v>
+        <v>4158.803591442205</v>
       </c>
       <c r="S2">
-        <v>0.03012962384832762</v>
+        <v>0.04195328841745859</v>
       </c>
       <c r="T2">
-        <v>0.03012962384832762</v>
+        <v>0.04195328841745859</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H3">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I3">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J3">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>19.663955</v>
       </c>
       <c r="O3">
-        <v>0.1788483346916312</v>
+        <v>0.1721548429547032</v>
       </c>
       <c r="P3">
-        <v>0.1788483346916312</v>
+        <v>0.1721548429547032</v>
       </c>
       <c r="Q3">
-        <v>380.0545287473406</v>
+        <v>335.7762901772589</v>
       </c>
       <c r="R3">
-        <v>3420.490758726065</v>
+        <v>3021.98661159533</v>
       </c>
       <c r="S3">
-        <v>0.02814268746076749</v>
+        <v>0.03048527614308211</v>
       </c>
       <c r="T3">
-        <v>0.02814268746076748</v>
+        <v>0.03048527614308212</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H4">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I4">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J4">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>11.432472</v>
+        <v>10.017966</v>
       </c>
       <c r="N4">
-        <v>34.297416</v>
+        <v>30.053898</v>
       </c>
       <c r="O4">
-        <v>0.3119431333028431</v>
+        <v>0.2631171649023133</v>
       </c>
       <c r="P4">
-        <v>0.3119431333028431</v>
+        <v>0.2631171649023133</v>
       </c>
       <c r="Q4">
-        <v>662.882328358232</v>
+        <v>513.1921007653719</v>
       </c>
       <c r="R4">
-        <v>5965.940955224089</v>
+        <v>4618.728906888347</v>
       </c>
       <c r="S4">
-        <v>0.04908582526759881</v>
+        <v>0.04659293512958218</v>
       </c>
       <c r="T4">
-        <v>0.04908582526759881</v>
+        <v>0.04659293512958219</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H5">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I5">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J5">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>1.677916</v>
+        <v>1.524802333333333</v>
       </c>
       <c r="N5">
-        <v>5.033748</v>
+        <v>4.574407</v>
       </c>
       <c r="O5">
-        <v>0.04578313198221463</v>
+        <v>0.04004821607331257</v>
       </c>
       <c r="P5">
-        <v>0.04578313198221463</v>
+        <v>0.04004821607331257</v>
       </c>
       <c r="Q5">
-        <v>97.28962072852934</v>
+        <v>78.11131647834245</v>
       </c>
       <c r="R5">
-        <v>875.6065865567641</v>
+        <v>703.0018483050819</v>
       </c>
       <c r="S5">
-        <v>0.007204206718346508</v>
+        <v>0.007091760563215681</v>
       </c>
       <c r="T5">
-        <v>0.007204206718346507</v>
+        <v>0.007091760563215682</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>57.98241433333334</v>
+        <v>51.22717533333333</v>
       </c>
       <c r="H6">
-        <v>173.947243</v>
+        <v>153.681526</v>
       </c>
       <c r="I6">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477903</v>
       </c>
       <c r="J6">
-        <v>0.1573550433628072</v>
+        <v>0.1770805608477904</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>9.966754</v>
+        <v>10.95635</v>
       </c>
       <c r="N6">
-        <v>29.900262</v>
+        <v>32.86905</v>
       </c>
       <c r="O6">
-        <v>0.2719499747402526</v>
+        <v>0.2877633792805307</v>
       </c>
       <c r="P6">
-        <v>0.2719499747402526</v>
+        <v>0.2877633792805307</v>
       </c>
       <c r="Q6">
-        <v>577.8964599864074</v>
+        <v>561.2628624633667</v>
       </c>
       <c r="R6">
-        <v>5201.068139877667</v>
+        <v>5051.3657621703</v>
       </c>
       <c r="S6">
-        <v>0.04279270006776676</v>
+        <v>0.05095730059445178</v>
       </c>
       <c r="T6">
-        <v>0.04279270006776676</v>
+        <v>0.05095730059445179</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>231.079704</v>
       </c>
       <c r="I7">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J7">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>7.017424666666666</v>
+        <v>9.020393666666665</v>
       </c>
       <c r="N7">
-        <v>21.052274</v>
+        <v>27.061181</v>
       </c>
       <c r="O7">
-        <v>0.1914754252830586</v>
+        <v>0.2369163967891402</v>
       </c>
       <c r="P7">
-        <v>0.1914754252830585</v>
+        <v>0.2369163967891402</v>
       </c>
       <c r="Q7">
-        <v>540.5281382718773</v>
+        <v>694.8099661522692</v>
       </c>
       <c r="R7">
-        <v>4864.753244446895</v>
+        <v>6253.289695370423</v>
       </c>
       <c r="S7">
-        <v>0.04002561029669718</v>
+        <v>0.06308210050785777</v>
       </c>
       <c r="T7">
-        <v>0.04002561029669718</v>
+        <v>0.06308210050785779</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>231.079704</v>
       </c>
       <c r="I8">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J8">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>19.663955</v>
       </c>
       <c r="O8">
-        <v>0.1788483346916312</v>
+        <v>0.1721548429547032</v>
       </c>
       <c r="P8">
-        <v>0.1788483346916312</v>
+        <v>0.1721548429547032</v>
       </c>
       <c r="Q8">
         <v>504.8823223188134</v>
@@ -948,10 +948,10 @@
         <v>4543.94090086932</v>
       </c>
       <c r="S8">
-        <v>0.0373860704891923</v>
+        <v>0.04583848671246066</v>
       </c>
       <c r="T8">
-        <v>0.03738607048919229</v>
+        <v>0.04583848671246066</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>231.079704</v>
       </c>
       <c r="I9">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J9">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>11.432472</v>
+        <v>10.017966</v>
       </c>
       <c r="N9">
-        <v>34.297416</v>
+        <v>30.053898</v>
       </c>
       <c r="O9">
-        <v>0.3119431333028431</v>
+        <v>0.2631171649023133</v>
       </c>
       <c r="P9">
-        <v>0.3119431333028431</v>
+        <v>0.2631171649023133</v>
       </c>
       <c r="Q9">
-        <v>880.6040819160959</v>
+        <v>771.6495393206879</v>
       </c>
       <c r="R9">
-        <v>7925.436737244863</v>
+        <v>6944.845853886191</v>
       </c>
       <c r="S9">
-        <v>0.06520792038901388</v>
+        <v>0.07005839894012408</v>
       </c>
       <c r="T9">
-        <v>0.06520792038901388</v>
+        <v>0.0700583989401241</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>231.079704</v>
       </c>
       <c r="I10">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J10">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.677916</v>
+        <v>1.524802333333333</v>
       </c>
       <c r="N10">
-        <v>5.033748</v>
+        <v>4.574407</v>
       </c>
       <c r="O10">
-        <v>0.04578313198221463</v>
+        <v>0.04004821607331257</v>
       </c>
       <c r="P10">
-        <v>0.04578313198221463</v>
+        <v>0.04004821607331257</v>
       </c>
       <c r="Q10">
-        <v>129.244110872288</v>
+        <v>117.4502906150587</v>
       </c>
       <c r="R10">
-        <v>1163.196997850592</v>
+        <v>1057.052615535528</v>
       </c>
       <c r="S10">
-        <v>0.009570407252906688</v>
+        <v>0.01066336321899064</v>
       </c>
       <c r="T10">
-        <v>0.009570407252906686</v>
+        <v>0.01066336321899064</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>231.079704</v>
       </c>
       <c r="I11">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="J11">
-        <v>0.2090378451309208</v>
+        <v>0.2662631264141754</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>9.966754</v>
+        <v>10.95635</v>
       </c>
       <c r="N11">
-        <v>29.900262</v>
+        <v>32.86905</v>
       </c>
       <c r="O11">
-        <v>0.2719499747402526</v>
+        <v>0.2877633792805307</v>
       </c>
       <c r="P11">
-        <v>0.2719499747402526</v>
+        <v>0.2877633792805307</v>
       </c>
       <c r="Q11">
-        <v>767.704854720272</v>
+        <v>843.9300383068</v>
       </c>
       <c r="R11">
-        <v>6909.343692482448</v>
+        <v>7595.3703447612</v>
       </c>
       <c r="S11">
-        <v>0.05684783670311074</v>
+        <v>0.07662077703474224</v>
       </c>
       <c r="T11">
-        <v>0.05684783670311074</v>
+        <v>0.07662077703474225</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>103.359665</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H12">
-        <v>310.078995</v>
+        <v>218.309753</v>
       </c>
       <c r="I12">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J12">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>7.017424666666666</v>
+        <v>9.020393666666665</v>
       </c>
       <c r="N12">
-        <v>21.052274</v>
+        <v>27.061181</v>
       </c>
       <c r="O12">
-        <v>0.1914754252830586</v>
+        <v>0.2369163967891402</v>
       </c>
       <c r="P12">
-        <v>0.1914754252830585</v>
+        <v>0.2369163967891402</v>
       </c>
       <c r="Q12">
-        <v>725.3186627094033</v>
+        <v>656.4133044442548</v>
       </c>
       <c r="R12">
-        <v>6527.86796438463</v>
+        <v>5907.719739998292</v>
       </c>
       <c r="S12">
-        <v>0.05370917826284526</v>
+        <v>0.05959605080934156</v>
       </c>
       <c r="T12">
-        <v>0.05370917826284525</v>
+        <v>0.05959605080934156</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>103.359665</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H13">
-        <v>310.078995</v>
+        <v>218.309753</v>
       </c>
       <c r="I13">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J13">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>19.663955</v>
       </c>
       <c r="O13">
-        <v>0.1788483346916312</v>
+        <v>0.1721548429547032</v>
       </c>
       <c r="P13">
-        <v>0.1788483346916312</v>
+        <v>0.1721548429547032</v>
       </c>
       <c r="Q13">
-        <v>677.4866004583585</v>
+        <v>476.9814621170129</v>
       </c>
       <c r="R13">
-        <v>6097.379404125226</v>
+        <v>4292.833159053115</v>
       </c>
       <c r="S13">
-        <v>0.05016725815213918</v>
+        <v>0.04330535542009812</v>
       </c>
       <c r="T13">
-        <v>0.05016725815213917</v>
+        <v>0.04330535542009812</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>103.359665</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H14">
-        <v>310.078995</v>
+        <v>218.309753</v>
       </c>
       <c r="I14">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J14">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>11.432472</v>
+        <v>10.017966</v>
       </c>
       <c r="N14">
-        <v>34.297416</v>
+        <v>30.053898</v>
       </c>
       <c r="O14">
-        <v>0.3119431333028431</v>
+        <v>0.2631171649023133</v>
       </c>
       <c r="P14">
-        <v>0.3119431333028431</v>
+        <v>0.2631171649023133</v>
       </c>
       <c r="Q14">
-        <v>1181.65647604188</v>
+        <v>729.006561007466</v>
       </c>
       <c r="R14">
-        <v>10634.90828437692</v>
+        <v>6561.059049067194</v>
       </c>
       <c r="S14">
-        <v>0.08750057261742657</v>
+        <v>0.06618682430108165</v>
       </c>
       <c r="T14">
-        <v>0.08750057261742657</v>
+        <v>0.06618682430108165</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>103.359665</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H15">
-        <v>310.078995</v>
+        <v>218.309753</v>
       </c>
       <c r="I15">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J15">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>1.677916</v>
+        <v>1.524802333333333</v>
       </c>
       <c r="N15">
-        <v>5.033748</v>
+        <v>4.574407</v>
       </c>
       <c r="O15">
-        <v>0.04578313198221463</v>
+        <v>0.04004821607331257</v>
       </c>
       <c r="P15">
-        <v>0.04578313198221463</v>
+        <v>0.04004821607331257</v>
       </c>
       <c r="Q15">
-        <v>173.42883565814</v>
+        <v>110.9597402546079</v>
       </c>
       <c r="R15">
-        <v>1560.85952092326</v>
+        <v>998.637662291471</v>
       </c>
       <c r="S15">
-        <v>0.01284224538699434</v>
+        <v>0.01007408331493765</v>
       </c>
       <c r="T15">
-        <v>0.01284224538699434</v>
+        <v>0.01007408331493765</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>103.359665</v>
+        <v>72.76991766666667</v>
       </c>
       <c r="H16">
-        <v>310.078995</v>
+        <v>218.309753</v>
       </c>
       <c r="I16">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="J16">
-        <v>0.2805016789149148</v>
+        <v>0.2515488654100336</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>9.966754</v>
+        <v>10.95635</v>
       </c>
       <c r="N16">
-        <v>29.900262</v>
+        <v>32.86905</v>
       </c>
       <c r="O16">
-        <v>0.2719499747402526</v>
+        <v>0.2877633792805307</v>
       </c>
       <c r="P16">
-        <v>0.2719499747402526</v>
+        <v>0.2877633792805307</v>
       </c>
       <c r="Q16">
-        <v>1030.16035457741</v>
+        <v>797.2926874271834</v>
       </c>
       <c r="R16">
-        <v>9271.443191196691</v>
+        <v>7175.634186844651</v>
       </c>
       <c r="S16">
-        <v>0.07628242449550952</v>
+        <v>0.07238655156457467</v>
       </c>
       <c r="T16">
-        <v>0.07628242449550952</v>
+        <v>0.07238655156457467</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>38.06883066666667</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H17">
-        <v>114.206492</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I17">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J17">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>7.017424666666666</v>
+        <v>9.020393666666665</v>
       </c>
       <c r="N17">
-        <v>21.052274</v>
+        <v>27.061181</v>
       </c>
       <c r="O17">
-        <v>0.1914754252830586</v>
+        <v>0.2369163967891402</v>
       </c>
       <c r="P17">
-        <v>0.1914754252830585</v>
+        <v>0.2369163967891402</v>
       </c>
       <c r="Q17">
-        <v>267.1451513514231</v>
+        <v>288.8334682535415</v>
       </c>
       <c r="R17">
-        <v>2404.306362162808</v>
+        <v>2599.501214281874</v>
       </c>
       <c r="S17">
-        <v>0.01978185216190542</v>
+        <v>0.02622331682330828</v>
       </c>
       <c r="T17">
-        <v>0.01978185216190542</v>
+        <v>0.02622331682330828</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>38.06883066666667</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H18">
-        <v>114.206492</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I18">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J18">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>19.663955</v>
       </c>
       <c r="O18">
-        <v>0.1788483346916312</v>
+        <v>0.1721548429547032</v>
       </c>
       <c r="P18">
-        <v>0.1788483346916312</v>
+        <v>0.1721548429547032</v>
       </c>
       <c r="Q18">
-        <v>249.5279243773178</v>
+        <v>209.8802828387856</v>
       </c>
       <c r="R18">
-        <v>2245.75131939586</v>
+        <v>1888.92254554907</v>
       </c>
       <c r="S18">
-        <v>0.01847731274675415</v>
+        <v>0.01905512261139959</v>
       </c>
       <c r="T18">
-        <v>0.01847731274675415</v>
+        <v>0.01905512261139959</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>38.06883066666667</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H19">
-        <v>114.206492</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I19">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J19">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>11.432472</v>
+        <v>10.017966</v>
       </c>
       <c r="N19">
-        <v>34.297416</v>
+        <v>30.053898</v>
       </c>
       <c r="O19">
-        <v>0.3119431333028431</v>
+        <v>0.2631171649023133</v>
       </c>
       <c r="P19">
-        <v>0.3119431333028431</v>
+        <v>0.2631171649023133</v>
       </c>
       <c r="Q19">
-        <v>435.220840669408</v>
+        <v>320.775785575588</v>
       </c>
       <c r="R19">
-        <v>3916.987566024672</v>
+        <v>2886.982070180292</v>
       </c>
       <c r="S19">
-        <v>0.03222770199776849</v>
+        <v>0.02912337377401937</v>
       </c>
       <c r="T19">
-        <v>0.03222770199776849</v>
+        <v>0.02912337377401937</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>38.06883066666667</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H20">
-        <v>114.206492</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I20">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J20">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.677916</v>
+        <v>1.524802333333333</v>
       </c>
       <c r="N20">
-        <v>5.033748</v>
+        <v>4.574407</v>
       </c>
       <c r="O20">
-        <v>0.04578313198221463</v>
+        <v>0.04004821607331257</v>
       </c>
       <c r="P20">
-        <v>0.04578313198221463</v>
+        <v>0.04004821607331257</v>
       </c>
       <c r="Q20">
-        <v>63.87630007689067</v>
+        <v>48.82424898651978</v>
       </c>
       <c r="R20">
-        <v>574.8867006920161</v>
+        <v>439.418240878678</v>
       </c>
       <c r="S20">
-        <v>0.004729981129653125</v>
+        <v>0.004432774905121811</v>
       </c>
       <c r="T20">
-        <v>0.004729981129653124</v>
+        <v>0.004432774905121812</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>38.06883066666667</v>
+        <v>32.02005133333333</v>
       </c>
       <c r="H21">
-        <v>114.206492</v>
+        <v>96.06015400000001</v>
       </c>
       <c r="I21">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="J21">
-        <v>0.1033127469630208</v>
+        <v>0.110685951579145</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>9.966754</v>
+        <v>10.95635</v>
       </c>
       <c r="N21">
-        <v>29.900262</v>
+        <v>32.86905</v>
       </c>
       <c r="O21">
-        <v>0.2719499747402526</v>
+        <v>0.2877633792805307</v>
       </c>
       <c r="P21">
-        <v>0.2719499747402526</v>
+        <v>0.2877633792805307</v>
       </c>
       <c r="Q21">
-        <v>379.4226703223227</v>
+        <v>350.8228894259667</v>
       </c>
       <c r="R21">
-        <v>3414.804032900905</v>
+        <v>3157.406004833701</v>
       </c>
       <c r="S21">
-        <v>0.02809589892693961</v>
+        <v>0.03185136346529596</v>
       </c>
       <c r="T21">
-        <v>0.02809589892693961</v>
+        <v>0.03185136346529596</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>92.04397066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H22">
-        <v>276.131912</v>
+        <v>168.731068</v>
       </c>
       <c r="I22">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J22">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>7.017424666666666</v>
+        <v>9.020393666666665</v>
       </c>
       <c r="N22">
-        <v>21.052274</v>
+        <v>27.061181</v>
       </c>
       <c r="O22">
-        <v>0.1914754252830586</v>
+        <v>0.2369163967891402</v>
       </c>
       <c r="P22">
-        <v>0.1914754252830585</v>
+        <v>0.2369163967891402</v>
       </c>
       <c r="Q22">
-        <v>645.9116301742097</v>
+        <v>507.3402190523674</v>
       </c>
       <c r="R22">
-        <v>5813.204671567887</v>
+        <v>4566.061971471308</v>
       </c>
       <c r="S22">
-        <v>0.04782916071328307</v>
+        <v>0.04606164023117403</v>
       </c>
       <c r="T22">
-        <v>0.04782916071328307</v>
+        <v>0.04606164023117403</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>92.04397066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H23">
-        <v>276.131912</v>
+        <v>168.731068</v>
       </c>
       <c r="I23">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J23">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>19.663955</v>
       </c>
       <c r="O23">
-        <v>0.1788483346916312</v>
+        <v>0.1721548429547032</v>
       </c>
       <c r="P23">
-        <v>0.1788483346916312</v>
+        <v>0.1721548429547032</v>
       </c>
       <c r="Q23">
-        <v>603.3161657368845</v>
+        <v>368.6577920282156</v>
       </c>
       <c r="R23">
-        <v>5429.845491631961</v>
+        <v>3317.92012825394</v>
       </c>
       <c r="S23">
-        <v>0.04467500584277814</v>
+        <v>0.03347060206766275</v>
       </c>
       <c r="T23">
-        <v>0.04467500584277814</v>
+        <v>0.03347060206766275</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>92.04397066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H24">
-        <v>276.131912</v>
+        <v>168.731068</v>
       </c>
       <c r="I24">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J24">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>11.432472</v>
+        <v>10.017966</v>
       </c>
       <c r="N24">
-        <v>34.297416</v>
+        <v>30.053898</v>
       </c>
       <c r="O24">
-        <v>0.3119431333028431</v>
+        <v>0.2631171649023133</v>
       </c>
       <c r="P24">
-        <v>0.3119431333028431</v>
+        <v>0.2631171649023133</v>
       </c>
       <c r="Q24">
-        <v>1052.290117415488</v>
+        <v>563.4473674558959</v>
       </c>
       <c r="R24">
-        <v>9470.611056739392</v>
+        <v>5071.026307103064</v>
       </c>
       <c r="S24">
-        <v>0.07792111303103533</v>
+        <v>0.05115563275750606</v>
       </c>
       <c r="T24">
-        <v>0.07792111303103533</v>
+        <v>0.05115563275750607</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>92.04397066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H25">
-        <v>276.131912</v>
+        <v>168.731068</v>
       </c>
       <c r="I25">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J25">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>1.677916</v>
+        <v>1.524802333333333</v>
       </c>
       <c r="N25">
-        <v>5.033748</v>
+        <v>4.574407</v>
       </c>
       <c r="O25">
-        <v>0.04578313198221463</v>
+        <v>0.04004821607331257</v>
       </c>
       <c r="P25">
-        <v>0.04578313198221463</v>
+        <v>0.04004821607331257</v>
       </c>
       <c r="Q25">
-        <v>154.4420510851307</v>
+        <v>85.76050873074178</v>
       </c>
       <c r="R25">
-        <v>1389.978459766176</v>
+        <v>771.844578576676</v>
       </c>
       <c r="S25">
-        <v>0.01143629149431398</v>
+        <v>0.007786234071046792</v>
       </c>
       <c r="T25">
-        <v>0.01143629149431397</v>
+        <v>0.007786234071046793</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>92.04397066666667</v>
+        <v>56.24368933333333</v>
       </c>
       <c r="H26">
-        <v>276.131912</v>
+        <v>168.731068</v>
       </c>
       <c r="I26">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488556</v>
       </c>
       <c r="J26">
-        <v>0.2497926856283365</v>
+        <v>0.1944214957488557</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>9.966754</v>
+        <v>10.95635</v>
       </c>
       <c r="N26">
-        <v>29.900262</v>
+        <v>32.86905</v>
       </c>
       <c r="O26">
-        <v>0.2719499747402526</v>
+        <v>0.2877633792805307</v>
       </c>
       <c r="P26">
-        <v>0.2719499747402526</v>
+        <v>0.2877633792805307</v>
       </c>
       <c r="Q26">
-        <v>917.3796128178826</v>
+        <v>616.2255456272667</v>
       </c>
       <c r="R26">
-        <v>8256.416515360945</v>
+        <v>5546.0299106454</v>
       </c>
       <c r="S26">
-        <v>0.06793111454692595</v>
+        <v>0.05594738662146603</v>
       </c>
       <c r="T26">
-        <v>0.06793111454692595</v>
+        <v>0.05594738662146604</v>
       </c>
     </row>
   </sheetData>
